--- a/variables.xlsx
+++ b/variables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tarifas" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -948,7 +948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -964,7 +966,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
